--- a/data/test_case_4.xlsx
+++ b/data/test_case_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Divya/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55239116-806B-9D43-9895-BB22F6A2672D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B8EA78-1605-0D4C-AEE6-2E985E1C2F2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15920" xr2:uid="{3CE9E432-03EE-1C45-A597-34FC4D411D0E}"/>
+    <workbookView xWindow="7200" yWindow="500" windowWidth="27640" windowHeight="15920" xr2:uid="{3CE9E432-03EE-1C45-A597-34FC4D411D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Country</t>
   </si>
@@ -91,13 +91,16 @@
   </si>
   <si>
     <t>Foremz</t>
+  </si>
+  <si>
+    <t>self</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -119,13 +122,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -137,15 +152,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -458,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38DFC9AF-452D-3946-A0DD-C0C45E4EA2FC}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -517,202 +535,252 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
+      <c r="A2" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B2">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
+      <c r="I2">
+        <v>38</v>
+      </c>
+      <c r="J2">
+        <v>40</v>
+      </c>
+      <c r="K2">
+        <v>20</v>
+      </c>
+      <c r="L2">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>40</v>
+      </c>
+      <c r="N2">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>20</v>
       </c>
-      <c r="D2">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>8</v>
-      </c>
-      <c r="H2">
-        <v>30</v>
-      </c>
-      <c r="I2">
-        <v>11</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>9</v>
-      </c>
-      <c r="L2">
-        <v>7</v>
-      </c>
-      <c r="M2">
-        <v>16</v>
-      </c>
-      <c r="N2">
-        <v>6</v>
-      </c>
-      <c r="O2">
-        <v>3</v>
-      </c>
       <c r="P2">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3">
+        <v>11</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+      <c r="L3">
         <v>7</v>
       </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
-      <c r="G3">
-        <v>11</v>
-      </c>
-      <c r="H3">
-        <v>9</v>
-      </c>
-      <c r="I3">
-        <v>11</v>
-      </c>
-      <c r="J3">
-        <v>7</v>
-      </c>
-      <c r="K3">
+      <c r="M3">
+        <v>16</v>
+      </c>
+      <c r="N3">
+        <v>6</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
         <v>5</v>
-      </c>
-      <c r="L3">
-        <v>9</v>
-      </c>
-      <c r="M3">
-        <v>8</v>
-      </c>
-      <c r="N3">
-        <v>8</v>
-      </c>
-      <c r="O3">
-        <v>5</v>
-      </c>
-      <c r="P3">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
+      <c r="A4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
       <c r="G4">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
         <v>3</v>
       </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>9</v>
-      </c>
-      <c r="G5">
-        <v>12</v>
-      </c>
       <c r="H5">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
       <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5">
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
         <v>0</v>
       </c>
-      <c r="M5">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="N5">
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>16</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
         <v>4</v>
       </c>
-      <c r="O5">
+      <c r="O6">
         <v>5</v>
       </c>
-      <c r="P5">
+      <c r="P6">
         <v>6</v>
       </c>
     </row>

--- a/data/test_case_4.xlsx
+++ b/data/test_case_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Divya/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B8EA78-1605-0D4C-AEE6-2E985E1C2F2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7593D723-4755-4E4B-B320-8E0DFF76BBA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="500" windowWidth="27640" windowHeight="15920" xr2:uid="{3CE9E432-03EE-1C45-A597-34FC4D411D0E}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15920" xr2:uid="{3CE9E432-03EE-1C45-A597-34FC4D411D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Country</t>
   </si>
@@ -45,24 +45,6 @@
     <t>R3</t>
   </si>
   <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>R20</t>
-  </si>
-  <si>
     <t>R21</t>
   </si>
   <si>
@@ -73,12 +55,6 @@
   </si>
   <si>
     <t>R24</t>
-  </si>
-  <si>
-    <t>R25</t>
-  </si>
-  <si>
-    <t>R26</t>
   </si>
   <si>
     <t>Carpania</t>
@@ -476,15 +452,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38DFC9AF-452D-3946-A0DD-C0C45E4EA2FC}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="K1" sqref="K1:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -509,34 +485,10 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B2">
         <v>35</v>
@@ -551,42 +503,18 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="H2">
-        <v>40</v>
-      </c>
-      <c r="I2">
-        <v>38</v>
-      </c>
-      <c r="J2">
-        <v>40</v>
-      </c>
-      <c r="K2">
-        <v>20</v>
-      </c>
-      <c r="L2">
-        <v>15</v>
-      </c>
-      <c r="M2">
-        <v>40</v>
-      </c>
-      <c r="N2">
         <v>10</v>
       </c>
-      <c r="O2">
-        <v>20</v>
-      </c>
-      <c r="P2">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -598,45 +526,21 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H3">
-        <v>30</v>
-      </c>
-      <c r="I3">
-        <v>11</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="K3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="L3">
-        <v>7</v>
-      </c>
-      <c r="M3">
-        <v>16</v>
-      </c>
-      <c r="N3">
-        <v>6</v>
-      </c>
-      <c r="O3">
-        <v>3</v>
-      </c>
-      <c r="P3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -648,45 +552,21 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
         <v>8</v>
       </c>
-      <c r="G4">
-        <v>11</v>
-      </c>
       <c r="H4">
-        <v>9</v>
-      </c>
-      <c r="I4">
-        <v>11</v>
-      </c>
-      <c r="J4">
-        <v>7</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4">
-        <v>9</v>
-      </c>
-      <c r="M4">
         <v>8</v>
       </c>
-      <c r="N4">
-        <v>8</v>
-      </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
-      <c r="P4">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -698,45 +578,21 @@
         <v>15</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="B6">
         <v>30</v>
@@ -748,40 +604,16 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>14</v>
-      </c>
-      <c r="I6">
-        <v>16</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
-      <c r="N6">
         <v>4</v>
-      </c>
-      <c r="O6">
-        <v>5</v>
-      </c>
-      <c r="P6">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/test_case_4.xlsx
+++ b/data/test_case_4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Divya/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludwik/AI-Spring-2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7593D723-4755-4E4B-B320-8E0DFF76BBA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6879E68B-C3F1-0946-8704-F9A7E61A1749}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15920" xr2:uid="{3CE9E432-03EE-1C45-A597-34FC4D411D0E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Country</t>
   </si>
@@ -70,13 +70,19 @@
   </si>
   <si>
     <t>self</t>
+  </si>
+  <si>
+    <t>Disaster</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,6 +111,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -128,17 +148,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -452,15 +478,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38DFC9AF-452D-3946-A0DD-C0C45E4EA2FC}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:N6"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,8 +511,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -511,8 +540,11 @@
       <c r="H2">
         <v>10</v>
       </c>
+      <c r="I2" s="4">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -537,8 +569,11 @@
       <c r="H3">
         <v>6</v>
       </c>
+      <c r="I3" s="4">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -563,8 +598,11 @@
       <c r="H4">
         <v>8</v>
       </c>
+      <c r="I4" s="4">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -589,8 +627,11 @@
       <c r="H5">
         <v>1</v>
       </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -615,6 +656,12 @@
       <c r="H6">
         <v>4</v>
       </c>
+      <c r="I6" s="4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
